--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnielben/Dropbox/01Escritorio/06teaching/01CursosDiseñados/03EnterpriseArchitecture-2019-2/03Introducción/07TallerMVNGit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\9 Semestre\Arem\calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC331875-42D2-9744-A621-9A03286C7B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7FDF8-E4CF-44D0-BC35-F9CAEB81F28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Diseño</t>
   </si>
@@ -166,13 +169,22 @@
   </si>
   <si>
     <t>El proceso de despliegue está automatizado (No en el primer taller)</t>
+  </si>
+  <si>
+    <t>Johan david rueda rodriguez</t>
+  </si>
+  <si>
+    <t>CESAR EDUARDO GONZALEZ CUENTAS</t>
+  </si>
+  <si>
+    <t>https://github.com/csarssj/AREP-LAB-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -266,6 +284,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,49 +604,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="66.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="11">
+        <v>44228</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -632,31 +662,31 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
         <v>41</v>
@@ -666,7 +696,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -676,10 +706,10 @@
       </c>
       <c r="C13" s="10">
         <f>SUM(C14:C20)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -690,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -701,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -709,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -723,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
@@ -734,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -745,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -756,12 +786,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -774,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -785,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -796,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -807,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -818,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -829,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -840,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -851,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -862,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
@@ -873,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
@@ -884,12 +914,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -902,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -913,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -924,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -935,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
@@ -946,12 +976,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
@@ -964,7 +994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -975,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -988,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>22</v>
       </c>
@@ -1021,12 +1051,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
@@ -1061,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
@@ -1094,12 +1124,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>39</v>
       </c>
@@ -1109,10 +1139,10 @@
       </c>
       <c r="C54" s="10">
         <f>SUM(C47,C40,C34,C22,C13)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>40</v>
       </c>
@@ -1122,10 +1152,11 @@
       </c>
       <c r="C55" s="10">
         <f>C54/$B$54*5</f>
-        <v>5</v>
+        <v>4.9404761904761907</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>